--- a/Source/CalcsAndModels/Bezier.xlsx
+++ b/Source/CalcsAndModels/Bezier.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Bezier" sheetId="1" r:id="rId1"/>
-    <sheet name="Moment" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Volume" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_R">#REF!</definedName>
+    <definedName name="_s">#REF!</definedName>
     <definedName name="p0.x">Bezier!$C$2</definedName>
     <definedName name="p0.y">Bezier!$D$2</definedName>
     <definedName name="p1.x">Bezier!$C$3</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
   <si>
     <t>p0</t>
   </si>
@@ -152,6 +153,21 @@
   </si>
   <si>
     <t>&lt;- integrate t^m (1-t)^n dt, t=0..1   -&gt;  1/denom</t>
+  </si>
+  <si>
+    <t>x0^2</t>
+  </si>
+  <si>
+    <t>x1^2</t>
+  </si>
+  <si>
+    <t>x2^2</t>
+  </si>
+  <si>
+    <t>x3^2</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -195,11 +211,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,67 +281,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2466999999999999</c:v>
+                  <c:v>1.2500000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2371000000000001</c:v>
+                  <c:v>1.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2216499999999999</c:v>
+                  <c:v>3.375E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2008000000000003</c:v>
+                  <c:v>8.0000000000000019E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.175</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1446999999999998</c:v>
+                  <c:v>2.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1103500000000002</c:v>
+                  <c:v>4.287499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0724</c:v>
+                  <c:v>6.4000000000000015E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0313000000000001</c:v>
+                  <c:v>9.1125000000000012E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.98750000000000004</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9414499999999999</c:v>
+                  <c:v>0.16637500000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.89360000000000006</c:v>
+                  <c:v>0.216</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.84440000000000004</c:v>
+                  <c:v>0.27462500000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.79430000000000001</c:v>
+                  <c:v>0.34299999999999992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.74375000000000002</c:v>
+                  <c:v>0.421875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.69320000000000004</c:v>
+                  <c:v>0.51200000000000012</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6431</c:v>
+                  <c:v>0.61412499999999992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.59389999999999998</c:v>
+                  <c:v>0.72900000000000009</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.54605000000000004</c:v>
+                  <c:v>0.85737499999999989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -337,67 +353,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.43859999999999988</c:v>
+                  <c:v>0.14262499999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.37480000000000002</c:v>
+                  <c:v>0.27100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.30919999999999997</c:v>
+                  <c:v>0.38587499999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.24240000000000003</c:v>
+                  <c:v>0.48800000000000016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.17499999999999999</c:v>
+                  <c:v>0.578125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.10759999999999995</c:v>
+                  <c:v>0.65699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.0800000000000031E-2</c:v>
+                  <c:v>0.72537499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4800000000000023E-2</c:v>
+                  <c:v>0.78400000000000014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8600000000000012E-2</c:v>
+                  <c:v>0.83362500000000017</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15000000000000002</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20840000000000009</c:v>
+                  <c:v>0.9088750000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.26319999999999999</c:v>
+                  <c:v>0.93600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.31380000000000008</c:v>
+                  <c:v>0.957125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.35959999999999992</c:v>
+                  <c:v>0.97299999999999986</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4</c:v>
+                  <c:v>0.984375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.43440000000000006</c:v>
+                  <c:v>0.9920000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.46219999999999994</c:v>
+                  <c:v>0.99662499999999987</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.48280000000000001</c:v>
+                  <c:v>0.99900000000000011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.49559999999999998</c:v>
+                  <c:v>0.99987500000000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,61 +528,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.7000000000000162E-2</c:v>
+                  <c:v>0.100762716319083</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.1080000000000001</c:v>
+                  <c:v>0.19091883092036782</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.15300000000000002</c:v>
+                  <c:v>0.27046834380385437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.19200000000000061</c:v>
+                  <c:v>0.33941125496954289</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.22500000000000009</c:v>
+                  <c:v>0.39774756441743297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.252</c:v>
+                  <c:v>0.44547727214752481</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.27300000000000035</c:v>
+                  <c:v>0.48260037815981865</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.28800000000000003</c:v>
+                  <c:v>0.50911688245431419</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.29700000000000015</c:v>
+                  <c:v>0.52502678503101163</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.30000000000000027</c:v>
+                  <c:v>0.53033008588991049</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.29700000000000015</c:v>
+                  <c:v>0.52502678503101152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.28800000000000026</c:v>
+                  <c:v>0.50911688245431419</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.27300000000000013</c:v>
+                  <c:v>0.48260037815981865</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.252</c:v>
+                  <c:v>0.44547727214752486</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.22500000000000009</c:v>
+                  <c:v>0.39774756441743297</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.19200000000000017</c:v>
+                  <c:v>0.33941125496954272</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.15300000000000002</c:v>
+                  <c:v>0.27046834380385443</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.1080000000000001</c:v>
+                  <c:v>0.19091883092036788</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-5.7000000000000162E-2</c:v>
+                  <c:v>0.10076271631908318</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -601,10 +617,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,10 +632,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.9999999999999978E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -651,10 +667,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,20 +682,20 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="58019840"/>
-        <c:axId val="64590592"/>
+        <c:axId val="46306048"/>
+        <c:axId val="46307584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58019840"/>
+        <c:axId val="46306048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,12 +736,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64590592"/>
+        <c:crossAx val="46307584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64590592"/>
+        <c:axId val="46307584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,7 +782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58019840"/>
+        <c:crossAx val="46306048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -808,7 +824,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1660,7 +1676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1671,7 +1687,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1689,18 +1705,17 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>1.25</f>
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f>((p1.y-p0.y)*(10*p0.x+6*p1.x+3*p2.x+p3.x)+(p2.y-p1.y)*(4*p0.x+6*p1.x+6*p2.x+4*p3.x)+(p3.y-p2.y)*(1*p0.x+3*p1.x+6*p2.x+10*p3.x))/20</f>
-        <v>1.0370000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1709,11 +1724,10 @@
       </c>
       <c r="C3">
         <f>(1*(p0.x-p3.x)+p3.x)</f>
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <f>0.6*(p0.y-p3.y)+p3.y</f>
-        <v>-9.9999999999999978E-2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -1722,7 +1736,7 @@
         <f>1/2*((p1.y-p0.y)*(1/3* p0.x^2 + 1/4* p0.x*p1.x + 1/14* p0.x*p2.x + 3/28* p1.x^2+ 3/28 * p1.x*p2.x + 1/84 * p0.x*p3.x + 3/70 * p2.x^2 + 1/35 * p1.x*p3.x + 1/28 * p2.x*p3.x + 1/84 * p3.x^2) +
   (p2.y-p1.y)*(1/12* p0.x^2 + 1/7* p0.x*p1.x + 1/14* p0.x*p2.x + 3/28* p1.x^2+ 6/35 * p1.x*p2.x + 2/105 * p0.x*p3.x + 3/28 * p2.x^2 + 1/14 * p1.x*p3.x + 1/7 * p2.x*p3.x + 1/12 * p3.x^2) +
   (p3.y-p2.y)*(1/84* p0.x^2 + 1/28* p0.x*p1.x + 1/35* p0.x*p2.x + 3/70* p1.x^2+ 3/28 * p1.x*p2.x + 1/84 * p0.x*p3.x + 3/28 * p2.x^2 + 1/14 * p1.x*p3.x + 1/4 * p2.x*p3.x + 1/3 * p3.x^2))</f>
-        <v>0.5555214285714285</v>
+        <v>5.9523809523809521E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1730,19 +1744,18 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <f>(0.4*(p0.x-p3.x)+p3.x)</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>0*(p0.y-p3.y)+p3.y</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4">
         <f>G3/G2</f>
-        <v>0.53570050971208139</v>
+        <v>0.11904761904761904</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1750,10 +1763,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1762,29 +1775,29 @@
       </c>
       <c r="C6">
         <f>(-D5+D2)/SQRT(SUMSQ(-$D$5-$D$2, $C$5-$C$2))</f>
-        <v>-1.3333333333333333</v>
+        <v>-0.70710678118654746</v>
       </c>
       <c r="D6">
         <f>(C5-C2)/SQRT(SUMSQ(-$D$5-$D$2, $C$5-$C$2))</f>
-        <v>-1</v>
+        <v>0.70710678118654746</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6">
         <f>2*PI()*G4*G2</f>
-        <v>3.4904440778234131</v>
+        <v>3.7399912542735635E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="B9" s="1" t="s">
@@ -1814,28 +1827,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>1.25</v>
+        <f t="shared" ref="C10:C30" si="0">(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
+        <v>0</v>
       </c>
       <c r="D10">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>-0.5</v>
+        <f t="shared" ref="D10:D30" si="1">(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
+        <v>0</v>
       </c>
       <c r="E10">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
+        <f t="shared" ref="E10:E30" si="2">3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>1.2000000000000002</v>
+        <f t="shared" ref="F10:F30" si="3">3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
+        <v>3</v>
       </c>
       <c r="G10">
-        <f>($C$6*$C10+$D$6*$D10)-G$32</f>
+        <f t="shared" ref="G10:G30" si="4">($C$6*$C10+$D$6*$D10)-G$32</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>($C$6*$E10+$D$6*$F10)</f>
-        <v>-1.2000000000000002</v>
+        <f t="shared" ref="H10:H30" si="5">($C$6*$E10+$D$6*$F10)</f>
+        <v>2.1213203435596424</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1843,28 +1856,28 @@
         <v>0.05</v>
       </c>
       <c r="C11">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>1.2466999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.2500000000000003E-4</v>
       </c>
       <c r="D11">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>-0.43859999999999988</v>
+        <f t="shared" si="1"/>
+        <v>0.14262499999999997</v>
       </c>
       <c r="E11">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.13049999999999998</v>
+        <f t="shared" si="2"/>
+        <v>7.5000000000000015E-3</v>
       </c>
       <c r="F11">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>1.254</v>
+        <f t="shared" si="3"/>
+        <v>2.7075</v>
       </c>
       <c r="G11">
-        <f>($C$6*$C11+$D$6*$D11)-G$32</f>
-        <v>-5.7000000000000162E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.100762716319083</v>
       </c>
       <c r="H11">
-        <f>($C$6*$E11+$D$6*$F11)</f>
-        <v>-1.08</v>
+        <f t="shared" si="5"/>
+        <v>1.9091883092036781</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1872,28 +1885,28 @@
         <v>0.1</v>
       </c>
       <c r="C12">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>1.2371000000000001</v>
+        <f t="shared" si="0"/>
+        <v>1.0000000000000002E-3</v>
       </c>
       <c r="D12">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>-0.37480000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.27100000000000002</v>
       </c>
       <c r="E12">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.252</v>
+        <f t="shared" si="2"/>
+        <v>3.0000000000000006E-2</v>
       </c>
       <c r="F12">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>1.296</v>
+        <f t="shared" si="3"/>
+        <v>2.4300000000000002</v>
       </c>
       <c r="G12">
-        <f>($C$6*$C12+$D$6*$D12)-G$32</f>
-        <v>-0.1080000000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.19091883092036782</v>
       </c>
       <c r="H12">
-        <f>($C$6*$E12+$D$6*$F12)</f>
-        <v>-0.96000000000000008</v>
+        <f t="shared" si="5"/>
+        <v>1.6970562748477138</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1901,28 +1914,28 @@
         <v>0.15</v>
       </c>
       <c r="C13">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>1.2216499999999999</v>
+        <f t="shared" si="0"/>
+        <v>3.375E-3</v>
       </c>
       <c r="D13">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>-0.30919999999999997</v>
+        <f t="shared" si="1"/>
+        <v>0.38587499999999997</v>
       </c>
       <c r="E13">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.36449999999999994</v>
+        <f t="shared" si="2"/>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="F13">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>1.3259999999999998</v>
+        <f t="shared" si="3"/>
+        <v>2.1674999999999995</v>
       </c>
       <c r="G13">
-        <f>($C$6*$C13+$D$6*$D13)-G$32</f>
-        <v>-0.15300000000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.27046834380385437</v>
       </c>
       <c r="H13">
-        <f>($C$6*$E13+$D$6*$F13)</f>
-        <v>-0.84</v>
+        <f t="shared" si="5"/>
+        <v>1.4849242404917493</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1930,28 +1943,28 @@
         <v>0.2</v>
       </c>
       <c r="C14">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>1.2008000000000003</v>
+        <f t="shared" si="0"/>
+        <v>8.0000000000000019E-3</v>
       </c>
       <c r="D14">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>-0.24240000000000003</v>
+        <f t="shared" si="1"/>
+        <v>0.48800000000000016</v>
       </c>
       <c r="E14">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.46800000000000008</v>
+        <f t="shared" si="2"/>
+        <v>0.12000000000000002</v>
       </c>
       <c r="F14">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>1.3440000000000003</v>
+        <f t="shared" si="3"/>
+        <v>1.9200000000000004</v>
       </c>
       <c r="G14">
-        <f>($C$6*$C14+$D$6*$D14)-G$32</f>
-        <v>-0.19200000000000061</v>
+        <f t="shared" si="4"/>
+        <v>0.33941125496954289</v>
       </c>
       <c r="H14">
-        <f>($C$6*$E14+$D$6*$F14)</f>
-        <v>-0.7200000000000002</v>
+        <f t="shared" si="5"/>
+        <v>1.2727922061357857</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1959,28 +1972,28 @@
         <v>0.25</v>
       </c>
       <c r="C15">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>1.175</v>
+        <f t="shared" si="0"/>
+        <v>1.5625E-2</v>
       </c>
       <c r="D15">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>-0.17499999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.578125</v>
       </c>
       <c r="E15">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.5625</v>
+        <f t="shared" si="2"/>
+        <v>0.1875</v>
       </c>
       <c r="F15">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>1.35</v>
+        <f t="shared" si="3"/>
+        <v>1.6875</v>
       </c>
       <c r="G15">
-        <f>($C$6*$C15+$D$6*$D15)-G$32</f>
-        <v>-0.22500000000000009</v>
+        <f t="shared" si="4"/>
+        <v>0.39774756441743297</v>
       </c>
       <c r="H15">
-        <f>($C$6*$E15+$D$6*$F15)</f>
-        <v>-0.60000000000000009</v>
+        <f t="shared" si="5"/>
+        <v>1.0606601717798212</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1988,28 +2001,28 @@
         <v>0.3</v>
       </c>
       <c r="C16">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>1.1446999999999998</v>
+        <f t="shared" si="0"/>
+        <v>2.7E-2</v>
       </c>
       <c r="D16">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>-0.10759999999999995</v>
+        <f t="shared" si="1"/>
+        <v>0.65699999999999992</v>
       </c>
       <c r="E16">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.64799999999999991</v>
+        <f t="shared" si="2"/>
+        <v>0.27</v>
       </c>
       <c r="F16">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>1.3439999999999999</v>
+        <f t="shared" si="3"/>
+        <v>1.4699999999999998</v>
       </c>
       <c r="G16">
-        <f>($C$6*$C16+$D$6*$D16)-G$32</f>
-        <v>-0.252</v>
+        <f t="shared" si="4"/>
+        <v>0.44547727214752481</v>
       </c>
       <c r="H16">
-        <f>($C$6*$E16+$D$6*$F16)</f>
-        <v>-0.48</v>
+        <f t="shared" si="5"/>
+        <v>0.84852813742385691</v>
       </c>
     </row>
     <row r="17" spans="2:8">
@@ -2017,28 +2030,28 @@
         <v>0.35</v>
       </c>
       <c r="C17">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>1.1103500000000002</v>
+        <f t="shared" si="0"/>
+        <v>4.287499999999999E-2</v>
       </c>
       <c r="D17">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>-4.0800000000000031E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.72537499999999999</v>
       </c>
       <c r="E17">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.72449999999999992</v>
+        <f t="shared" si="2"/>
+        <v>0.36749999999999994</v>
       </c>
       <c r="F17">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>1.3260000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.2675000000000001</v>
       </c>
       <c r="G17">
-        <f>($C$6*$C17+$D$6*$D17)-G$32</f>
-        <v>-0.27300000000000035</v>
+        <f t="shared" si="4"/>
+        <v>0.48260037815981865</v>
       </c>
       <c r="H17">
-        <f>($C$6*$E17+$D$6*$F17)</f>
-        <v>-0.36000000000000021</v>
+        <f t="shared" si="5"/>
+        <v>0.63639610306789274</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -2046,28 +2059,28 @@
         <v>0.4</v>
       </c>
       <c r="C18">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>1.0724</v>
+        <f t="shared" si="0"/>
+        <v>6.4000000000000015E-2</v>
       </c>
       <c r="D18">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>2.4800000000000023E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.78400000000000014</v>
       </c>
       <c r="E18">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.79199999999999993</v>
+        <f t="shared" si="2"/>
+        <v>0.48000000000000009</v>
       </c>
       <c r="F18">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>1.296</v>
+        <f t="shared" si="3"/>
+        <v>1.08</v>
       </c>
       <c r="G18">
-        <f>($C$6*$C18+$D$6*$D18)-G$32</f>
-        <v>-0.28800000000000003</v>
+        <f t="shared" si="4"/>
+        <v>0.50911688245431419</v>
       </c>
       <c r="H18">
-        <f>($C$6*$E18+$D$6*$F18)</f>
-        <v>-0.24000000000000021</v>
+        <f t="shared" si="5"/>
+        <v>0.42426406871192845</v>
       </c>
     </row>
     <row r="19" spans="2:8">
@@ -2075,28 +2088,28 @@
         <v>0.45</v>
       </c>
       <c r="C19">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>1.0313000000000001</v>
+        <f t="shared" si="0"/>
+        <v>9.1125000000000012E-2</v>
       </c>
       <c r="D19">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>8.8600000000000012E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.83362500000000017</v>
       </c>
       <c r="E19">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.85050000000000003</v>
+        <f t="shared" si="2"/>
+        <v>0.60750000000000004</v>
       </c>
       <c r="F19">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>1.254</v>
+        <f t="shared" si="3"/>
+        <v>0.9075000000000002</v>
       </c>
       <c r="G19">
-        <f>($C$6*$C19+$D$6*$D19)-G$32</f>
-        <v>-0.29700000000000015</v>
+        <f t="shared" si="4"/>
+        <v>0.52502678503101163</v>
       </c>
       <c r="H19">
-        <f>($C$6*$E19+$D$6*$F19)</f>
-        <v>-0.12000000000000011</v>
+        <f t="shared" si="5"/>
+        <v>0.21213203435596434</v>
       </c>
     </row>
     <row r="20" spans="2:8">
@@ -2104,28 +2117,28 @@
         <v>0.5</v>
       </c>
       <c r="C20">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>0.98750000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.125</v>
       </c>
       <c r="D20">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>0.15000000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.875</v>
       </c>
       <c r="E20">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.89999999999999991</v>
+        <f t="shared" si="2"/>
+        <v>0.75</v>
       </c>
       <c r="F20">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>1.2</v>
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
       <c r="G20">
-        <f>($C$6*$C20+$D$6*$D20)-G$32</f>
-        <v>-0.30000000000000027</v>
+        <f t="shared" si="4"/>
+        <v>0.53033008588991049</v>
       </c>
       <c r="H20">
-        <f>($C$6*$E20+$D$6*$F20)</f>
-        <v>-2.2204460492503131E-16</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:8">
@@ -2133,28 +2146,28 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="C21">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>0.9414499999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.16637500000000005</v>
       </c>
       <c r="D21">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>0.20840000000000009</v>
+        <f t="shared" si="1"/>
+        <v>0.9088750000000001</v>
       </c>
       <c r="E21">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.9405</v>
+        <f t="shared" si="2"/>
+        <v>0.9075000000000002</v>
       </c>
       <c r="F21">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>1.1339999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.60749999999999993</v>
       </c>
       <c r="G21">
-        <f>($C$6*$C21+$D$6*$D21)-G$32</f>
-        <v>-0.29700000000000015</v>
+        <f t="shared" si="4"/>
+        <v>0.52502678503101152</v>
       </c>
       <c r="H21">
-        <f>($C$6*$E21+$D$6*$F21)</f>
-        <v>0.12000000000000011</v>
+        <f t="shared" si="5"/>
+        <v>-0.21213203435596439</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -2162,28 +2175,28 @@
         <v>0.6</v>
       </c>
       <c r="C22">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>0.89360000000000006</v>
+        <f t="shared" si="0"/>
+        <v>0.216</v>
       </c>
       <c r="D22">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>0.26319999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.93600000000000005</v>
       </c>
       <c r="E22">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.97200000000000009</v>
+        <f t="shared" si="2"/>
+        <v>1.08</v>
       </c>
       <c r="F22">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>1.056</v>
+        <f t="shared" si="3"/>
+        <v>0.48000000000000009</v>
       </c>
       <c r="G22">
-        <f>($C$6*$C22+$D$6*$D22)-G$32</f>
-        <v>-0.28800000000000026</v>
+        <f t="shared" si="4"/>
+        <v>0.50911688245431419</v>
       </c>
       <c r="H22">
-        <f>($C$6*$E22+$D$6*$F22)</f>
-        <v>0.24</v>
+        <f t="shared" si="5"/>
+        <v>-0.42426406871192845</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -2191,28 +2204,28 @@
         <v>0.65</v>
       </c>
       <c r="C23">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>0.84440000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.27462500000000006</v>
       </c>
       <c r="D23">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>0.31380000000000008</v>
+        <f t="shared" si="1"/>
+        <v>0.957125</v>
       </c>
       <c r="E23">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.99449999999999994</v>
+        <f t="shared" si="2"/>
+        <v>1.2675000000000001</v>
       </c>
       <c r="F23">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>0.96599999999999986</v>
+        <f t="shared" si="3"/>
+        <v>0.36749999999999994</v>
       </c>
       <c r="G23">
-        <f>($C$6*$C23+$D$6*$D23)-G$32</f>
-        <v>-0.27300000000000013</v>
+        <f t="shared" si="4"/>
+        <v>0.48260037815981865</v>
       </c>
       <c r="H23">
-        <f>($C$6*$E23+$D$6*$F23)</f>
-        <v>0.36</v>
+        <f t="shared" si="5"/>
+        <v>-0.63639610306789274</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -2220,28 +2233,28 @@
         <v>0.7</v>
       </c>
       <c r="C24">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>0.79430000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.34299999999999992</v>
       </c>
       <c r="D24">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>0.35959999999999992</v>
+        <f t="shared" si="1"/>
+        <v>0.97299999999999986</v>
       </c>
       <c r="E24">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-1.008</v>
+        <f t="shared" si="2"/>
+        <v>1.4699999999999998</v>
       </c>
       <c r="F24">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>0.8640000000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.27000000000000007</v>
       </c>
       <c r="G24">
-        <f>($C$6*$C24+$D$6*$D24)-G$32</f>
-        <v>-0.252</v>
+        <f t="shared" si="4"/>
+        <v>0.44547727214752486</v>
       </c>
       <c r="H24">
-        <f>($C$6*$E24+$D$6*$F24)</f>
-        <v>0.47999999999999976</v>
+        <f t="shared" si="5"/>
+        <v>-0.8485281374238568</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -2249,28 +2262,28 @@
         <v>0.75</v>
       </c>
       <c r="C25">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>0.74375000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.421875</v>
       </c>
       <c r="D25">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>0.4</v>
+        <f t="shared" si="1"/>
+        <v>0.984375</v>
       </c>
       <c r="E25">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-1.0125000000000002</v>
+        <f t="shared" si="2"/>
+        <v>1.6875</v>
       </c>
       <c r="F25">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>0.75</v>
+        <f t="shared" si="3"/>
+        <v>0.1875</v>
       </c>
       <c r="G25">
-        <f>($C$6*$C25+$D$6*$D25)-G$32</f>
-        <v>-0.22500000000000009</v>
+        <f t="shared" si="4"/>
+        <v>0.39774756441743297</v>
       </c>
       <c r="H25">
-        <f>($C$6*$E25+$D$6*$F25)</f>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="5"/>
+        <v>-1.0606601717798212</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -2278,28 +2291,28 @@
         <v>0.8</v>
       </c>
       <c r="C26">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>0.69320000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.51200000000000012</v>
       </c>
       <c r="D26">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>0.43440000000000006</v>
+        <f t="shared" si="1"/>
+        <v>0.9920000000000001</v>
       </c>
       <c r="E26">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-1.008</v>
+        <f t="shared" si="2"/>
+        <v>1.9200000000000004</v>
       </c>
       <c r="F26">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>0.62399999999999978</v>
+        <f t="shared" si="3"/>
+        <v>0.11999999999999994</v>
       </c>
       <c r="G26">
-        <f>($C$6*$C26+$D$6*$D26)-G$32</f>
-        <v>-0.19200000000000017</v>
+        <f t="shared" si="4"/>
+        <v>0.33941125496954272</v>
       </c>
       <c r="H26">
-        <f>($C$6*$E26+$D$6*$F26)</f>
-        <v>0.72000000000000008</v>
+        <f t="shared" si="5"/>
+        <v>-1.2727922061357857</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -2307,28 +2320,28 @@
         <v>0.85</v>
       </c>
       <c r="C27">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>0.6431</v>
+        <f t="shared" si="0"/>
+        <v>0.61412499999999992</v>
       </c>
       <c r="D27">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>0.46219999999999994</v>
+        <f t="shared" si="1"/>
+        <v>0.99662499999999987</v>
       </c>
       <c r="E27">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.99449999999999994</v>
+        <f t="shared" si="2"/>
+        <v>2.1674999999999995</v>
       </c>
       <c r="F27">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>0.4860000000000001</v>
+        <f t="shared" si="3"/>
+        <v>6.7500000000000018E-2</v>
       </c>
       <c r="G27">
-        <f>($C$6*$C27+$D$6*$D27)-G$32</f>
-        <v>-0.15300000000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.27046834380385443</v>
       </c>
       <c r="H27">
-        <f>($C$6*$E27+$D$6*$F27)</f>
-        <v>0.83999999999999975</v>
+        <f t="shared" si="5"/>
+        <v>-1.4849242404917493</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -2336,28 +2349,28 @@
         <v>0.9</v>
       </c>
       <c r="C28">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>0.59389999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.72900000000000009</v>
       </c>
       <c r="D28">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>0.48280000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.99900000000000011</v>
       </c>
       <c r="E28">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.9720000000000002</v>
+        <f t="shared" si="2"/>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F28">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>0.33599999999999997</v>
+        <f t="shared" si="3"/>
+        <v>2.9999999999999985E-2</v>
       </c>
       <c r="G28">
-        <f>($C$6*$C28+$D$6*$D28)-G$32</f>
-        <v>-0.1080000000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.19091883092036788</v>
       </c>
       <c r="H28">
-        <f>($C$6*$E28+$D$6*$F28)</f>
-        <v>0.9600000000000003</v>
+        <f t="shared" si="5"/>
+        <v>-1.6970562748477138</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -2365,28 +2378,28 @@
         <v>0.95</v>
       </c>
       <c r="C29">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>0.54605000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.85737499999999989</v>
       </c>
       <c r="D29">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>0.49559999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.99987500000000007</v>
       </c>
       <c r="E29">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.94050000000000022</v>
+        <f t="shared" si="2"/>
+        <v>2.7075</v>
       </c>
       <c r="F29">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
-        <v>0.17400000000000015</v>
+        <f t="shared" si="3"/>
+        <v>7.5000000000000136E-3</v>
       </c>
       <c r="G29">
-        <f>($C$6*$C29+$D$6*$D29)-G$32</f>
-        <v>-5.7000000000000162E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.10076271631908318</v>
       </c>
       <c r="H29">
-        <f>($C$6*$E29+$D$6*$F29)</f>
-        <v>1.08</v>
+        <f t="shared" si="5"/>
+        <v>-1.9091883092036781</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -2394,34 +2407,34 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>0.5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="D30">
-        <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E30">
-        <f>3*(1-t_)^2*(p1.x-p0.x)+6*(1-t_)*t_*(p2.x-p1.x)+3*t_^2*(p3.x-p2.x)</f>
-        <v>-0.90000000000000013</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="F30">
-        <f>3*(1-t_)^2*(p1.y-p0.y)+6*(1-t_)*t_*(p2.y-p1.y)+3*t_^2*(p3.y-p2.y)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f>($C$6*$C30+$D$6*$D30)-G$32</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f>($C$6*$E30+$D$6*$F30)</f>
-        <v>1.2000000000000002</v>
+        <f t="shared" si="5"/>
+        <v>-2.1213203435596424</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="G32">
         <f>($C$6*$C10+$D$6*$D10)</f>
-        <v>-1.1666666666666665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2437,13 +2450,13 @@
       <c r="M34" t="s">
         <v>36</v>
       </c>
-      <c r="N34" s="4" t="s">
+      <c r="N34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O34" s="4" t="s">
+      <c r="O34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P34" s="4"/>
+      <c r="P34" s="3"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
@@ -2454,15 +2467,15 @@
       </c>
       <c r="C35">
         <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <f>C35*H$37+D35*I$37</f>
-        <v>-1.0228559659204033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2474,105 +2487,105 @@
       </c>
       <c r="C36">
         <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>0.98750000000000004</v>
+        <v>0.125</v>
       </c>
       <c r="D36">
         <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>0.15000000000000002</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="B37">
         <f>(M37+N37)/O37</f>
-        <v>2.426239754050334</v>
+        <v>0.2742918851774318</v>
       </c>
       <c r="C37">
         <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>1.8724759221159397</v>
+        <v>2.0636634771508833E-2</v>
       </c>
       <c r="D37">
         <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>-5.4824474042552565</v>
+        <v>0.61780417548123578</v>
       </c>
       <c r="E37">
         <f>C37*H$37+D37*I$37-E$35</f>
-        <v>0.7799963888058481</v>
+        <v>5.6965782954413353E-2</v>
       </c>
       <c r="F37">
         <f>-D36+D35</f>
-        <v>-0.65</v>
+        <v>-0.875</v>
       </c>
       <c r="G37">
         <f>C36-C35</f>
-        <v>-0.26249999999999996</v>
+        <v>0.125</v>
       </c>
       <c r="H37">
         <f>F37/SQRT(F37^2+G37^2)</f>
-        <v>-0.92724183710793961</v>
+        <v>-0.98994949366116647</v>
       </c>
       <c r="I37">
         <f>G37/SQRT(G37^2+H37^2)</f>
-        <v>-0.27239266092904263</v>
+        <v>0.1252743380004715</v>
       </c>
       <c r="J37">
         <f>(p1.x-p0.x)*F37+(p1.y-p0.y)*G37</f>
-        <v>-0.10499999999999998</v>
+        <v>0.125</v>
       </c>
       <c r="K37">
         <f>(p2.x-p1.x)*F37+(p2.y-p1.y)*G37</f>
-        <v>0.13500000000000001</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <f>(p3.x-p2.x)*F37+(p3.y-p2.y)*G37</f>
-        <v>0.19500000000000003</v>
+        <v>-0.875</v>
       </c>
       <c r="M37">
         <f>SQRT(K37^2-J37*L37)</f>
-        <v>0.19672315572906002</v>
+        <v>0.33071891388307384</v>
       </c>
       <c r="N37">
         <f>-J37+K37</f>
-        <v>0.24</v>
+        <v>-0.125</v>
       </c>
       <c r="O37">
         <f>-J37+2*K37-L37</f>
-        <v>0.17999999999999997</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="B38">
         <f>(-M37+N37)/O37</f>
-        <v>0.24042691261633323</v>
+        <v>-0.60762521851076512</v>
       </c>
       <c r="C38">
         <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>1.1803018556618388</v>
+        <v>-0.22434033847521256</v>
       </c>
       <c r="D38">
         <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>-0.1879229661151183</v>
+        <v>-3.1548412125182739</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38:E39" si="0">C38*H$37+D38*I$37-E$35</f>
-        <v>-2.0380458275614854E-2</v>
+        <f t="shared" ref="E38:E39" si="6">C38*H$37+D38*I$37-E$35</f>
+        <v>-0.17313503991352019</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="B39">
         <f>(2*K37-L37)/2/(K37-L37)</f>
-        <v>-0.62499999999999956</v>
+        <v>0.5</v>
       </c>
       <c r="C39">
         <f>(1-t_)^3*p0.x+3*(1-t_)^2*t_*p1.x+3*(1-t_)*t_^2*p2.x+t_^3*p3.x</f>
-        <v>0.57617187500000022</v>
+        <v>0.125</v>
       </c>
       <c r="D39">
         <f>(1-t_)^3*p0.y+3*(1-t_)^2*t_*p1.y+3*(1-t_)*t_^2*p2.y+t_^3*p3.y</f>
-        <v>-0.82031250000000033</v>
+        <v>0.875</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>0.7120524027238323</v>
+        <f t="shared" si="6"/>
+        <v>-1.4128640957233249E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2587,15 +2600,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:M47"/>
+  <dimension ref="A2:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2612,7 +2625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2629,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2646,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2663,12 +2676,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="6" spans="1:20">
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -2677,7 +2695,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -2686,7 +2704,7 @@
         <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -2695,42 +2713,30 @@
         <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2784,11 +2790,11 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f>$B4+C4</f>
+        <f t="shared" ref="B10:D11" si="0">$B4+C4</f>
         <v>5</v>
       </c>
       <c r="D10">
-        <f>$B4+D4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E10">
@@ -2820,20 +2826,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11">
-        <f>$B5+B5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C11">
-        <f>$B5+C5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D11">
-        <f>$B5+D5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E11">
@@ -2865,1065 +2871,1297 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <f>$B9*B9</f>
+        <v>1</v>
       </c>
       <c r="C14">
+        <f t="shared" ref="C14:D14" si="1">$B9*C9</f>
         <v>6</v>
       </c>
       <c r="D14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <f>$B9*G9</f>
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f>$B9*E9</f>
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <f>$B9*F9</f>
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <f>$B9*I9</f>
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <f>$B9*H9</f>
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <f>$B9*J9</f>
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <f>$B9*K9</f>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f>$C9*C9</f>
+        <v>36</v>
+      </c>
+      <c r="M14">
+        <f>$C9*D9</f>
+        <v>36</v>
+      </c>
+      <c r="N14">
+        <f>$C9*E9</f>
+        <v>54</v>
+      </c>
+      <c r="O14">
+        <f>$C9*F9</f>
+        <v>108</v>
+      </c>
+      <c r="P14">
+        <f>$C9*G9</f>
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <f>$C9*H9</f>
+        <v>54</v>
+      </c>
+      <c r="R14">
+        <f>$C9*I9</f>
+        <v>36</v>
+      </c>
+      <c r="S14">
+        <f>$C9*J9</f>
+        <v>36</v>
+      </c>
+      <c r="T14">
+        <f>$C9*K9</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <f>$B10+B10</f>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <f t="shared" ref="C15:D15" si="2">$B10+C10</f>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <f>$B10+G10</f>
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <f>$B10+E10</f>
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <f>$B10+F10</f>
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <f>$B10+I10</f>
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <f>$B10+H10</f>
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <f>$B10+J10</f>
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <f>$B10+K10</f>
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <f>$C10+C10</f>
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <f>$C10+D10</f>
+        <v>9</v>
+      </c>
+      <c r="N15">
+        <f>$C10+E10</f>
+        <v>9</v>
+      </c>
+      <c r="O15">
+        <f>$C10+F10</f>
+        <v>8</v>
+      </c>
+      <c r="P15">
+        <f>$C10+G10</f>
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <f>$C10+H10</f>
+        <v>7</v>
+      </c>
+      <c r="R15">
+        <f>$C10+I10</f>
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <f>$C10+J10</f>
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <f>$C10+K10</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16">
+        <f>$B11+B11</f>
         <v>0</v>
       </c>
       <c r="C16">
+        <f t="shared" ref="C16:D16" si="3">$B11+C11</f>
         <v>1</v>
       </c>
       <c r="D16">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="E16">
+        <f>$B11+G11</f>
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <f>$B11+E11</f>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f>$B11+F11</f>
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <f>$B11+I11</f>
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <f>$B11+H11</f>
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <f>$B11+J11</f>
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <f>$B11+K11</f>
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <f>$C11+C11</f>
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f>$C11+D11</f>
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <f>$C11+E11</f>
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <f>$C11+F11</f>
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <f>$C11+G11</f>
+        <v>4</v>
+      </c>
+      <c r="Q16">
+        <f>$C11+H11</f>
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <f>$C11+I11</f>
+        <v>5</v>
+      </c>
+      <c r="S16">
+        <f>$C11+J11</f>
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <f>$C11+K11</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="B18" s="4" t="s">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" t="s">
-        <v>14</v>
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" t="s">
-        <v>14</v>
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <f>$B14*B9</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:K21" si="0">$B14*C9</f>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <f>$B15+B10</f>
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ref="C22:K22" si="1">$B15+C10</f>
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <f>$B16+B11</f>
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ref="C23:K23" si="2">$B16+C11</f>
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <f>CHOOSE(MIN(B22:B23)+1, 9, 72, 252, 504, 630)</f>
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ref="C24" si="3">CHOOSE(MIN(C22:C23)+1, 9, 72, 252, 504, 630)</f>
-        <v>72</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ref="D24" si="4">CHOOSE(MIN(D22:D23)+1, 9, 72, 252, 504, 630)</f>
-        <v>252</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ref="E24" si="5">CHOOSE(MIN(E22:E23)+1, 9, 72, 252, 504, 630)</f>
-        <v>252</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ref="F24" si="6">CHOOSE(MIN(F22:F23)+1, 9, 72, 252, 504, 630)</f>
-        <v>504</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ref="G24" si="7">CHOOSE(MIN(G22:G23)+1, 9, 72, 252, 504, 630)</f>
-        <v>504</v>
-      </c>
-      <c r="H24">
-        <f t="shared" ref="H24" si="8">CHOOSE(MIN(H22:H23)+1, 9, 72, 252, 504, 630)</f>
-        <v>630</v>
-      </c>
-      <c r="I24">
-        <f t="shared" ref="I24" si="9">CHOOSE(MIN(I22:I23)+1, 9, 72, 252, 504, 630)</f>
-        <v>630</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ref="J24" si="10">CHOOSE(MIN(J22:J23)+1, 9, 72, 252, 504, 630)</f>
-        <v>504</v>
-      </c>
-      <c r="K24">
-        <f t="shared" ref="K24" si="11">CHOOSE(MIN(K22:K23)+1, 9, 72, 252, 504, 630)</f>
-        <v>252</v>
-      </c>
-      <c r="M24" t="s">
-        <v>39</v>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <f>$B19*B9</f>
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <f>$B19*C9</f>
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <f>$B19*D9</f>
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <f>$B19*E9</f>
+        <v>27</v>
+      </c>
+      <c r="F26">
+        <f>$B19*F9</f>
+        <v>54</v>
+      </c>
+      <c r="G26">
+        <f>$B19*G9</f>
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <f>$B19*H9</f>
+        <v>27</v>
+      </c>
+      <c r="I26">
+        <f>$B19*I9</f>
+        <v>18</v>
+      </c>
+      <c r="J26">
+        <f>$B19*J9</f>
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <f>$B19*K9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f>$B20+B10</f>
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <f>$B20+C10</f>
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <f>$B20+D10</f>
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <f>$B20+E10</f>
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <f>$B20+F10</f>
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <f>$B20+G10</f>
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <f>$B20+H10</f>
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <f>$B20+I10</f>
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <f>$B20+J10</f>
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <f>$B20+K10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f>$B21+B11</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f>$B21+C11</f>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f>$B21+D11</f>
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f>$B21+E11</f>
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <f>$B21+F11</f>
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <f>$B21+G11</f>
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <f>$B21+H11</f>
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <f>$B21+I11</f>
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <f>$B21+J11</f>
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <f>$B21+K11</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <f>CHOOSE(MIN(B27:B28)+1, 9, 72, 252, 504, 630)</f>
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29" si="4">CHOOSE(MIN(C27:C28)+1, 9, 72, 252, 504, 630)</f>
+        <v>72</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29" si="5">CHOOSE(MIN(D27:D28)+1, 9, 72, 252, 504, 630)</f>
+        <v>252</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29" si="6">CHOOSE(MIN(E27:E28)+1, 9, 72, 252, 504, 630)</f>
+        <v>252</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29" si="7">CHOOSE(MIN(F27:F28)+1, 9, 72, 252, 504, 630)</f>
+        <v>504</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29" si="8">CHOOSE(MIN(G27:G28)+1, 9, 72, 252, 504, 630)</f>
+        <v>504</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29" si="9">CHOOSE(MIN(H27:H28)+1, 9, 72, 252, 504, 630)</f>
+        <v>630</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29" si="10">CHOOSE(MIN(I27:I28)+1, 9, 72, 252, 504, 630)</f>
+        <v>630</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29" si="11">CHOOSE(MIN(J27:J28)+1, 9, 72, 252, 504, 630)</f>
+        <v>504</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29" si="12">CHOOSE(MIN(K27:K28)+1, 9, 72, 252, 504, 630)</f>
+        <v>252</v>
+      </c>
+      <c r="M29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
-        <f>B24/B21*B25</f>
+      <c r="B31">
+        <f>B29/B26*B30</f>
         <v>3</v>
       </c>
-      <c r="C26">
-        <f t="shared" ref="C26:K26" si="12">C24/C21*C25</f>
+      <c r="C31">
+        <f t="shared" ref="C31:K31" si="13">C29/C26*C30</f>
         <v>4</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="12"/>
+      <c r="D31">
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="12"/>
+      <c r="E31">
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="12"/>
+      <c r="F31">
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="12"/>
+      <c r="G31">
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="12"/>
+      <c r="H31">
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="12"/>
+      <c r="I31">
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="12"/>
+      <c r="J31">
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="12"/>
+      <c r="K31">
+        <f t="shared" si="13"/>
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="B29" s="4" t="s">
+    <row r="34" spans="1:11">
+      <c r="B34" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="B30" t="s">
+    <row r="35" spans="1:11">
+      <c r="B35" t="s">
         <v>11</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E35" t="s">
         <v>12</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F35" t="s">
         <v>12</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G35" t="s">
         <v>11</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H35" t="s">
         <v>13</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I35" t="s">
         <v>12</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J35" t="s">
         <v>13</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
+    <row r="36" spans="1:11">
+      <c r="B36" t="s">
         <v>11</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C36" t="s">
         <v>12</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E36" t="s">
         <v>12</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F36" t="s">
         <v>13</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G36" t="s">
         <v>14</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H36" t="s">
         <v>13</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I36" t="s">
         <v>14</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J36" t="s">
         <v>14</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K36" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32">
-        <f>$C14*B9</f>
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ref="C32:K32" si="13">$C14*C9</f>
-        <v>36</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="13"/>
-        <v>54</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="13"/>
-        <v>108</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="13"/>
-        <v>54</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="13"/>
-        <v>36</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33">
-        <f>$C15+B10</f>
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ref="C33:K33" si="14">$C15+C10</f>
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34">
-        <f>$C16+B11</f>
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:K34" si="15">$C16+C11</f>
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35">
-        <f>CHOOSE(MIN(B33:B34)+1, 9, 72, 252, 504, 630)</f>
-        <v>72</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35" si="16">CHOOSE(MIN(C33:C34)+1, 9, 72, 252, 504, 630)</f>
-        <v>252</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ref="D35" si="17">CHOOSE(MIN(D33:D34)+1, 9, 72, 252, 504, 630)</f>
-        <v>504</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ref="E35" si="18">CHOOSE(MIN(E33:E34)+1, 9, 72, 252, 504, 630)</f>
-        <v>504</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ref="F35" si="19">CHOOSE(MIN(F33:F34)+1, 9, 72, 252, 504, 630)</f>
-        <v>630</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ref="G35" si="20">CHOOSE(MIN(G33:G34)+1, 9, 72, 252, 504, 630)</f>
-        <v>630</v>
-      </c>
-      <c r="H35">
-        <f t="shared" ref="H35" si="21">CHOOSE(MIN(H33:H34)+1, 9, 72, 252, 504, 630)</f>
-        <v>504</v>
-      </c>
-      <c r="I35">
-        <f t="shared" ref="I35" si="22">CHOOSE(MIN(I33:I34)+1, 9, 72, 252, 504, 630)</f>
-        <v>504</v>
-      </c>
-      <c r="J35">
-        <f t="shared" ref="J35" si="23">CHOOSE(MIN(J33:J34)+1, 9, 72, 252, 504, 630)</f>
-        <v>252</v>
-      </c>
-      <c r="K35">
-        <f t="shared" ref="K35" si="24">CHOOSE(MIN(K33:K34)+1, 9, 72, 252, 504, 630)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>6</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B37">
-        <f>B35/B32*B36</f>
+        <f>$C19*B9</f>
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <f>$C19*C9</f>
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <f>$C19*D9</f>
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <f>$C19*E9</f>
+        <v>54</v>
+      </c>
+      <c r="F37">
+        <f>$C19*F9</f>
+        <v>108</v>
+      </c>
+      <c r="G37">
+        <f>$C19*G9</f>
         <v>12</v>
       </c>
-      <c r="C37">
-        <f t="shared" ref="C37" si="25">C35/C32*C36</f>
+      <c r="H37">
+        <f>$C19*H9</f>
+        <v>54</v>
+      </c>
+      <c r="I37">
+        <f>$C19*I9</f>
+        <v>36</v>
+      </c>
+      <c r="J37">
+        <f>$C19*J9</f>
+        <v>36</v>
+      </c>
+      <c r="K37">
+        <f>$C19*K9</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38">
+        <f>$C20+B10</f>
         <v>7</v>
       </c>
-      <c r="D37">
-        <f t="shared" ref="D37" si="26">D35/D32*D36</f>
-        <v>14</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ref="E37" si="27">E35/E32*E36</f>
+      <c r="C38">
+        <f>$C20+C10</f>
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <f>$C20+D10</f>
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <f>$C20+E10</f>
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <f>$C20+F10</f>
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <f>$C20+G10</f>
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <f>$C20+H10</f>
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <f>$C20+I10</f>
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <f>$C20+J10</f>
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <f>$C20+K10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <f>$C21+B11</f>
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f>$C21+C11</f>
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <f>$C21+D11</f>
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <f>$C21+E11</f>
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <f>$C21+F11</f>
+        <v>4</v>
+      </c>
+      <c r="G39">
+        <f>$C21+G11</f>
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <f>$C21+H11</f>
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <f>$C21+I11</f>
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <f>$C21+J11</f>
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <f>$C21+K11</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40">
+        <f>CHOOSE(MIN(B38:B39)+1, 9, 72, 252, 504, 630)</f>
+        <v>72</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="14">CHOOSE(MIN(C38:C39)+1, 9, 72, 252, 504, 630)</f>
+        <v>252</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="15">CHOOSE(MIN(D38:D39)+1, 9, 72, 252, 504, 630)</f>
+        <v>504</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="16">CHOOSE(MIN(E38:E39)+1, 9, 72, 252, 504, 630)</f>
+        <v>504</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40" si="17">CHOOSE(MIN(F38:F39)+1, 9, 72, 252, 504, 630)</f>
+        <v>630</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ref="G40" si="18">CHOOSE(MIN(G38:G39)+1, 9, 72, 252, 504, 630)</f>
+        <v>630</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ref="H40" si="19">CHOOSE(MIN(H38:H39)+1, 9, 72, 252, 504, 630)</f>
+        <v>504</v>
+      </c>
+      <c r="I40">
+        <f t="shared" ref="I40" si="20">CHOOSE(MIN(I38:I39)+1, 9, 72, 252, 504, 630)</f>
+        <v>504</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J40" si="21">CHOOSE(MIN(J38:J39)+1, 9, 72, 252, 504, 630)</f>
+        <v>252</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ref="K40" si="22">CHOOSE(MIN(K38:K39)+1, 9, 72, 252, 504, 630)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="F37">
-        <f t="shared" ref="F37" si="28">F35/F32*F36</f>
-        <v>35</v>
-      </c>
-      <c r="G37">
-        <f t="shared" ref="G37" si="29">G35/G32*G36</f>
-        <v>105</v>
-      </c>
-      <c r="H37">
-        <f t="shared" ref="H37" si="30">H35/H32*H36</f>
-        <v>28</v>
-      </c>
-      <c r="I37">
-        <f t="shared" ref="I37" si="31">I35/I32*I36</f>
-        <v>14</v>
-      </c>
-      <c r="J37">
-        <f t="shared" ref="J37" si="32">J35/J32*J36</f>
-        <v>7</v>
-      </c>
-      <c r="K37">
-        <f t="shared" ref="K37" si="33">K35/K32*K36</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="B39" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" t="s">
-        <v>14</v>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B42">
-        <f>$D14*B9</f>
-        <v>3</v>
+        <f>B40/B37*B41</f>
+        <v>12</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:K42" si="34">$D14*C9</f>
-        <v>18</v>
+        <f t="shared" ref="C42" si="23">C40/C37*C41</f>
+        <v>7</v>
       </c>
       <c r="D42">
-        <f t="shared" si="34"/>
-        <v>18</v>
+        <f t="shared" ref="D42" si="24">D40/D37*D41</f>
+        <v>14</v>
       </c>
       <c r="E42">
-        <f t="shared" si="34"/>
-        <v>27</v>
+        <f t="shared" ref="E42" si="25">E40/E37*E41</f>
+        <v>28</v>
       </c>
       <c r="F42">
-        <f t="shared" si="34"/>
-        <v>54</v>
+        <f t="shared" ref="F42" si="26">F40/F37*F41</f>
+        <v>35</v>
       </c>
       <c r="G42">
-        <f t="shared" si="34"/>
-        <v>6</v>
+        <f t="shared" ref="G42" si="27">G40/G37*G41</f>
+        <v>105</v>
       </c>
       <c r="H42">
-        <f t="shared" si="34"/>
-        <v>27</v>
+        <f t="shared" ref="H42" si="28">H40/H37*H41</f>
+        <v>28</v>
       </c>
       <c r="I42">
-        <f t="shared" si="34"/>
-        <v>18</v>
+        <f t="shared" ref="I42" si="29">I40/I37*I41</f>
+        <v>14</v>
       </c>
       <c r="J42">
-        <f t="shared" si="34"/>
-        <v>18</v>
+        <f t="shared" ref="J42" si="30">J40/J37*J41</f>
+        <v>7</v>
       </c>
       <c r="K42">
-        <f t="shared" si="34"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43">
-        <f>$D15+B10</f>
-        <v>6</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ref="C43:K43" si="35">$D15+C10</f>
-        <v>5</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="35"/>
-        <v>4</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="35"/>
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="35"/>
-        <v>3</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" ref="K42" si="31">K40/K37*K41</f>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44">
-        <f>$D16+B11</f>
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ref="C44:K44" si="36">$D16+C11</f>
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="36"/>
-        <v>4</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="36"/>
-        <v>4</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="36"/>
-        <v>5</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="36"/>
-        <v>5</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="36"/>
-        <v>6</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="36"/>
-        <v>6</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="36"/>
-        <v>7</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="36"/>
-        <v>8</v>
+      <c r="B44" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45">
-        <f>CHOOSE(MIN(B43:B44)+1, 9, 72, 252, 504, 630)</f>
-        <v>252</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ref="C45:K45" si="37">CHOOSE(MIN(C43:C44)+1, 9, 72, 252, 504, 630)</f>
-        <v>504</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="37"/>
-        <v>630</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="37"/>
-        <v>630</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="37"/>
-        <v>504</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="37"/>
-        <v>504</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="37"/>
-        <v>252</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="37"/>
-        <v>252</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="37"/>
-        <v>72</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="37"/>
-        <v>9</v>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47">
+        <f>$D19*B9</f>
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <f>$D19*C9</f>
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <f>$D19*D9</f>
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <f>$D19*E9</f>
+        <v>27</v>
+      </c>
+      <c r="F47">
+        <f>$D19*F9</f>
+        <v>54</v>
+      </c>
+      <c r="G47">
+        <f>$D19*G9</f>
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <f>$D19*H9</f>
+        <v>27</v>
+      </c>
+      <c r="I47">
+        <f>$D19*I9</f>
+        <v>18</v>
+      </c>
+      <c r="J47">
+        <f>$D19*J9</f>
+        <v>18</v>
+      </c>
+      <c r="K47">
+        <f>$D19*K9</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48">
+        <f>$D20+B10</f>
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <f>$D20+C10</f>
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <f>$D20+D10</f>
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <f>$D20+E10</f>
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <f>$D20+F10</f>
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <f>$D20+G10</f>
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <f>$D20+H10</f>
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <f>$D20+I10</f>
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <f>$D20+J10</f>
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <f>$D20+K10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49">
+        <f>$D21+B11</f>
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <f>$D21+C11</f>
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <f>$D21+D11</f>
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <f>$D21+E11</f>
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <f>$D21+F11</f>
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <f>$D21+G11</f>
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <f>$D21+H11</f>
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <f>$D21+I11</f>
+        <v>6</v>
+      </c>
+      <c r="J49">
+        <f>$D21+J11</f>
+        <v>7</v>
+      </c>
+      <c r="K49">
+        <f>$D21+K11</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50">
+        <f>CHOOSE(MIN(B48:B49)+1, 9, 72, 252, 504, 630)</f>
+        <v>252</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:K50" si="32">CHOOSE(MIN(C48:C49)+1, 9, 72, 252, 504, 630)</f>
+        <v>504</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="32"/>
+        <v>630</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="32"/>
+        <v>630</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="32"/>
+        <v>504</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="32"/>
+        <v>504</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="32"/>
+        <v>252</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="32"/>
+        <v>252</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="32"/>
+        <v>72</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="32"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
         <v>29</v>
       </c>
-      <c r="B47">
-        <f>B45/B42*B46</f>
+      <c r="B52">
+        <f>B50/B47*B51</f>
         <v>84</v>
       </c>
-      <c r="C47">
-        <f t="shared" ref="C47" si="38">C45/C42*C46</f>
+      <c r="C52">
+        <f t="shared" ref="C52" si="33">C50/C47*C51</f>
         <v>28</v>
       </c>
-      <c r="D47">
-        <f t="shared" ref="D47" si="39">D45/D42*D46</f>
+      <c r="D52">
+        <f t="shared" ref="D52" si="34">D50/D47*D51</f>
         <v>35</v>
       </c>
-      <c r="E47">
-        <f t="shared" ref="E47" si="40">E45/E42*E46</f>
+      <c r="E52">
+        <f t="shared" ref="E52" si="35">E50/E47*E51</f>
         <v>70</v>
       </c>
-      <c r="F47">
-        <f t="shared" ref="F47" si="41">F45/F42*F46</f>
+      <c r="F52">
+        <f t="shared" ref="F52" si="36">F50/F47*F51</f>
         <v>28</v>
       </c>
-      <c r="G47">
-        <f t="shared" ref="G47" si="42">G45/G42*G46</f>
+      <c r="G52">
+        <f t="shared" ref="G52" si="37">G50/G47*G51</f>
         <v>84</v>
       </c>
-      <c r="H47">
-        <f t="shared" ref="H47" si="43">H45/H42*H46</f>
+      <c r="H52">
+        <f t="shared" ref="H52" si="38">H50/H47*H51</f>
         <v>28</v>
       </c>
-      <c r="I47">
-        <f t="shared" ref="I47" si="44">I45/I42*I46</f>
+      <c r="I52">
+        <f t="shared" ref="I52" si="39">I50/I47*I51</f>
         <v>14</v>
       </c>
-      <c r="J47">
-        <f t="shared" ref="J47" si="45">J45/J42*J46</f>
+      <c r="J52">
+        <f t="shared" ref="J52" si="40">J50/J47*J51</f>
         <v>4</v>
       </c>
-      <c r="K47">
-        <f t="shared" ref="K47" si="46">K45/K42*K46</f>
+      <c r="K52">
+        <f t="shared" ref="K52" si="41">K50/K47*K51</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>